--- a/biology/Botanique/Fairmount_Park/Fairmount_Park.xlsx
+++ b/biology/Botanique/Fairmount_Park/Fairmount_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fairmount Park est un système de parcs municipaux situé à Philadelphie aux États-Unis. Il est géré par la Fairmount Park Commission. En 1876, le Fairmount Park fut choisi pour accueillir l'exposition universelle, la Centennial Exposition. On y trouve le plus ancien zoo du pays, un arboretum, le centre d'horticulture de la ville, le Memorial Hall et des dizaines de statues. Il est surtout connu pour être le principal musée de la ville, le Philadelphia Museum of Art. Il fut inscrit sur le Registre national des lieux historiques en 1972.
